--- a/Datos/Database by set/Set with text box/Xlsx sets/Commander 2015 Tokens (TC15).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Commander 2015 Tokens (TC15).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A88"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,609 +444,154 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Angel</t>
+          <t>('Angel', ['Token Creature — Angel', 'Flying', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Token Creature — Angel</t>
+          <t>('Bear', ['Token Creature — Bear', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t>('Beast', ['Token Creature — Beast', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4/4</t>
+          <t>('Cat', ['Token Creature — Cat', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bear</t>
+          <t>('Dragon', ['Token Creature — Dragon', 'Flying', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Token Creature — Bear</t>
+          <t>('Drake', ['Token Creature — Drake', 'Flying', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>('Elemental', ['Token Creature — Elemental', 'Flying', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Beast</t>
+          <t>('Elemental Shaman', ['Token Creature — Elemental Shaman', '3/1'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Token Creature — Beast</t>
+          <t>('Elephant', ['Token Creature — Elephant', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4/4</t>
+          <t>('Experience', ['Card', '(Place your experience counters here.)'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cat</t>
+          <t>('Frog Lizard', ['Token Creature — Frog Lizard', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Token Creature — Cat</t>
+          <t>('Germ', ['Token Creature — Germ', '0/0'])</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>('Gold', ['Token Artifact — Gold', 'Sacrifice this artifact: Add one mana of any color.'])</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dragon</t>
+          <t>('Knight', ['Token Creature — Knight', 'Vigilance', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Token Creature — Dragon</t>
+          <t>('Lightning Rager', ['Token Creature — Elemental', 'Trample, haste', 'At the beginning of the end step, sacrifice this creature.', '5/1'])</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t>('Saproling', ['Token Creature — Saproling', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5/5</t>
+          <t>('Shapeshifter', ['Token Creature — Shapeshifter', 'Changeling', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Drake</t>
+          <t>('Snake', ['Token Creature — Snake', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Token Creature — Drake</t>
+          <t>('Spider', ['Token Creature — Spider', 'Reach', '1/2'])</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t>('Spirit', ['Token Creature — Spirit', 'Flying', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>('Wolf', ['Token Creature — Wolf', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Elemental</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Token Creature — Elemental</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>5/5</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Elemental Shaman</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Token Creature — Elemental Shaman</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>3/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Elephant</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Token Creature — Elephant</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Experience</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>(Place your experience counters here.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Frog Lizard</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Token Creature — Frog Lizard</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Germ</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Token Creature — Germ</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Gold</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Token Artifact — Gold</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Sacrifice this artifact: Add one mana of any color.</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Knight</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Token Creature — Knight</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>First strike</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Knight</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Token Creature — Knight</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Vigilance</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Lightning Rager</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Token Creature — Elemental</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Trample, haste</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>At the beginning of the end step, sacrifice this creature.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>5/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Saproling</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Token Creature — Saproling</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Shapeshifter</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Token Creature — Shapeshifter</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Changeling</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Snake</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Token Creature — Snake</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Snake</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Token Creature — Snake</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Spider</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Token Creature — Spider</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Reach</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>1/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Spirit</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Token Enchantment Creature — Spirit</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>This creature’s power and toughness are each equal to the number of experience counters you have.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>*/*</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Spirit</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Token Creature — Spirit</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Wolf</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Token Creature — Wolf</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Zombie</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Token Creature — Zombie</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>2/2</t>
+          <t>('Zombie', ['Token Creature — Zombie', '2/2'])</t>
         </is>
       </c>
     </row>
